--- a/Divers/planning.xlsx
+++ b/Divers/planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16381BFD-F7C3-44FC-8379-56A21922F3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A25CD5-CFCB-47B1-96B0-BE02D1BDA7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,20 +994,20 @@
     <xf numFmtId="165" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1303,9 +1303,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>36</xdr:col>
-          <xdr:colOff>82550</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1671,7 +1671,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE23" sqref="AE23"/>
+      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1718,107 +1718,107 @@
       <c r="B3" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="96">
+      <c r="D3" s="96"/>
+      <c r="E3" s="95">
         <f ca="1">TODAY()</f>
         <v>45061</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="74">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="92">
         <f ca="1">I5</f>
         <v>45061</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f ca="1">P5</f>
         <v>45068</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f ca="1">W5</f>
         <v>45075</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f ca="1">AD5</f>
         <v>45082</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f ca="1">AK5</f>
         <v>45089</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f ca="1">AR5</f>
         <v>45096</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f ca="1">AY5</f>
         <v>45103</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f ca="1">BF5</f>
         <v>45110</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
@@ -4012,14 +4012,15 @@
         <v>45089</v>
       </c>
       <c r="F30" s="71">
-        <v>45089</v>
+        <f>E30+6</f>
+        <v>45095</v>
       </c>
       <c r="G30" s="80" t="s">
         <v>58</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -4088,17 +4089,19 @@
       <c r="C31" s="58"/>
       <c r="D31" s="20"/>
       <c r="E31" s="71">
-        <v>45069</v>
+        <f>F30+1</f>
+        <v>45096</v>
       </c>
       <c r="F31" s="71">
-        <v>45074</v>
+        <f>E31+20</f>
+        <v>45116</v>
       </c>
       <c r="G31" s="80" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="15">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -4384,17 +4387,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="17">

--- a/Divers/planning.xlsx
+++ b/Divers/planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A25CD5-CFCB-47B1-96B0-BE02D1BDA7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CEAB04-6C92-48F8-BCE6-A94CD6298D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="29520" yWindow="675" windowWidth="19110" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -994,6 +994,9 @@
     <xf numFmtId="165" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1005,9 +1008,6 @@
     </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1303,9 +1303,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>36</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>82550</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1718,107 +1718,107 @@
       <c r="B3" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="95">
+      <c r="D3" s="92"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45061</v>
-      </c>
-      <c r="F3" s="95"/>
+        <v>45062</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="74">
         <v>1</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45061</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45068</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45075</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45082</v>
       </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45089</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45096</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45103</v>
       </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45110</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
@@ -2933,7 +2933,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="71">
         <f ca="1">Project_Start</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="F16" s="71">
         <v>45070</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="H16" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -4387,17 +4387,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="17">

--- a/Divers/planning.xlsx
+++ b/Divers/planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CEAB04-6C92-48F8-BCE6-A94CD6298D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9726DD-5BF7-4CB4-B082-28161905B1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29520" yWindow="675" windowWidth="19110" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -994,20 +994,20 @@
     <xf numFmtId="165" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1299,13 +1299,13 @@
           <xdr:col>23</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>209549</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>36</xdr:col>
-          <xdr:colOff>82550</xdr:colOff>
+          <xdr:col>49</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123824</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1670,8 +1670,8 @@
   <dimension ref="A1:BL37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1718,107 +1718,106 @@
       <c r="B3" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="96">
-        <f ca="1">TODAY()</f>
-        <v>45062</v>
-      </c>
-      <c r="F3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="95">
+        <v>45061</v>
+      </c>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="74">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
-        <f ca="1">I5</f>
+      <c r="I4" s="92">
+        <f>I5</f>
         <v>45061</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
-        <f ca="1">P5</f>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
+        <f>P5</f>
         <v>45068</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
-        <f ca="1">W5</f>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
+        <f>W5</f>
         <v>45075</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
-        <f ca="1">AD5</f>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
+        <f>AD5</f>
         <v>45082</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
-        <f ca="1">AK5</f>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
+        <f>AK5</f>
         <v>45089</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
-        <f ca="1">AR5</f>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
+        <f>AR5</f>
         <v>45096</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
-        <f ca="1">AY5</f>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
+        <f>AY5</f>
         <v>45103</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
-        <f ca="1">BF5</f>
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
+        <f>BF5</f>
         <v>45110</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
@@ -1831,227 +1830,227 @@
       <c r="F5" s="65"/>
       <c r="G5" s="79"/>
       <c r="I5" s="9">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45061</v>
       </c>
       <c r="J5" s="8">
-        <f ca="1">I5+1</f>
+        <f>I5+1</f>
         <v>45062</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45063</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45064</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45065</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45066</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45067</v>
       </c>
       <c r="P5" s="9">
-        <f ca="1">O5+1</f>
+        <f>O5+1</f>
         <v>45068</v>
       </c>
       <c r="Q5" s="8">
-        <f ca="1">P5+1</f>
+        <f>P5+1</f>
         <v>45069</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45070</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45071</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45072</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45073</v>
       </c>
       <c r="V5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45074</v>
       </c>
       <c r="W5" s="9">
-        <f ca="1">V5+1</f>
+        <f>V5+1</f>
         <v>45075</v>
       </c>
       <c r="X5" s="8">
-        <f ca="1">W5+1</f>
+        <f>W5+1</f>
         <v>45076</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45077</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45078</v>
       </c>
       <c r="AA5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45079</v>
       </c>
       <c r="AB5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="AC5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45081</v>
       </c>
       <c r="AD5" s="9">
-        <f ca="1">AC5+1</f>
+        <f>AC5+1</f>
         <v>45082</v>
       </c>
       <c r="AE5" s="8">
-        <f ca="1">AD5+1</f>
+        <f>AD5+1</f>
         <v>45083</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45084</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45085</v>
       </c>
       <c r="AH5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45086</v>
       </c>
       <c r="AI5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45087</v>
       </c>
       <c r="AJ5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45088</v>
       </c>
       <c r="AK5" s="9">
-        <f ca="1">AJ5+1</f>
+        <f>AJ5+1</f>
         <v>45089</v>
       </c>
       <c r="AL5" s="8">
-        <f ca="1">AK5+1</f>
+        <f>AK5+1</f>
         <v>45090</v>
       </c>
       <c r="AM5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45091</v>
       </c>
       <c r="AN5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45092</v>
       </c>
       <c r="AO5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45093</v>
       </c>
       <c r="AP5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45094</v>
       </c>
       <c r="AQ5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45095</v>
       </c>
       <c r="AR5" s="9">
-        <f ca="1">AQ5+1</f>
+        <f>AQ5+1</f>
         <v>45096</v>
       </c>
       <c r="AS5" s="8">
-        <f ca="1">AR5+1</f>
+        <f>AR5+1</f>
         <v>45097</v>
       </c>
       <c r="AT5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45098</v>
       </c>
       <c r="AU5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45099</v>
       </c>
       <c r="AV5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45100</v>
       </c>
       <c r="AW5" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45101</v>
       </c>
       <c r="AX5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45102</v>
       </c>
       <c r="AY5" s="9">
-        <f ca="1">AX5+1</f>
+        <f>AX5+1</f>
         <v>45103</v>
       </c>
       <c r="AZ5" s="8">
-        <f ca="1">AY5+1</f>
+        <f>AY5+1</f>
         <v>45104</v>
       </c>
       <c r="BA5" s="8">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45105</v>
       </c>
       <c r="BB5" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>45106</v>
       </c>
       <c r="BC5" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>45107</v>
       </c>
       <c r="BD5" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="BE5" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>45109</v>
       </c>
       <c r="BF5" s="9">
-        <f ca="1">BE5+1</f>
+        <f>BE5+1</f>
         <v>45110</v>
       </c>
       <c r="BG5" s="8">
-        <f ca="1">BF5+1</f>
+        <f>BF5+1</f>
         <v>45111</v>
       </c>
       <c r="BH5" s="8">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45112</v>
       </c>
       <c r="BI5" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>45113</v>
       </c>
       <c r="BJ5" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>45114</v>
       </c>
       <c r="BK5" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>45115</v>
       </c>
       <c r="BL5" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>45116</v>
       </c>
     </row>
@@ -2932,8 +2931,8 @@
       <c r="C16" s="58"/>
       <c r="D16" s="20"/>
       <c r="E16" s="71">
-        <f ca="1">Project_Start</f>
-        <v>45062</v>
+        <f>Project_Start</f>
+        <v>45061</v>
       </c>
       <c r="F16" s="71">
         <v>45070</v>
@@ -2942,8 +2941,8 @@
         <v>58</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -4387,17 +4386,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="17">
@@ -4435,7 +4434,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5,($G7="b"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -4460,13 +4459,13 @@
                     <xdr:col>23</xdr:col>
                     <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>209550</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>36</xdr:col>
-                    <xdr:colOff>82550</xdr:colOff>
+                    <xdr:col>49</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>120650</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Divers/planning.xlsx
+++ b/Divers/planning.xlsx
@@ -3,20 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D86F182-1DFB-483D-AC69-8F8881F616A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F870B-4F1C-479A-B0A7-49FFDDFE75AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
     <sheet name="About" sheetId="12" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
+    <definedName name="task_end" localSheetId="2">ProjectSchedule!$F1</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
+    <definedName name="task_progress" localSheetId="2">ProjectSchedule!$D1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
+    <definedName name="task_start" localSheetId="2">ProjectSchedule!$E1</definedName>
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
@@ -40,15 +44,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
   <si>
     <t>Project Start:</t>
-  </si>
-  <si>
-    <t>PROGRESS</t>
   </si>
   <si>
     <t>Project Management Templates</t>
@@ -189,9 +190,6 @@
 A status bar shaded for the dates entered appears in blocks starting from cell I9 through BL9. </t>
   </si>
   <si>
-    <t>Telemetry for the Formula Student</t>
-  </si>
-  <si>
     <t>HES-SO Valais Wallis</t>
   </si>
   <si>
@@ -201,24 +199,12 @@
     <t>g</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -240,12 +226,6 @@
     <t>Software</t>
   </si>
   <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
     <t>Intermediate presentation</t>
   </si>
   <si>
@@ -255,9 +235,6 @@
     <t>Diplomas work exhibition</t>
   </si>
   <si>
-    <t>Presentations</t>
-  </si>
-  <si>
     <t>Transmission technology study</t>
   </si>
   <si>
@@ -285,9 +262,6 @@
     <t>Schematic</t>
   </si>
   <si>
-    <t>Production (eurocircuits)</t>
-  </si>
-  <si>
     <t>Tests and commissioning</t>
   </si>
   <si>
@@ -297,13 +271,40 @@
     <t>WiFi transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">GPS </t>
-  </si>
-  <si>
     <t>CANBUS interface</t>
   </si>
   <si>
-    <t>General architecture update</t>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>General Architecture</t>
+  </si>
+  <si>
+    <t>Getting started with Zephyr and nRF7002 DK</t>
+  </si>
+  <si>
+    <t>SD card control</t>
+  </si>
+  <si>
+    <t>GPS control</t>
+  </si>
+  <si>
+    <t>Telemetry for the Formula Student - Planning</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>Intermetidate presentation</t>
   </si>
 </sst>
 </file>
@@ -314,9 +315,9 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -496,7 +497,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,8 +576,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -697,6 +716,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -706,7 +775,153 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -742,7 +957,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -935,9 +1150,6 @@
     <xf numFmtId="14" fontId="9" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -985,21 +1197,99 @@
     <xf numFmtId="165" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="15" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="12" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -1016,7 +1306,385 @@
     <cellStyle name="Titre 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1176,15 +1844,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="firstColumn" dxfId="47"/>
+      <tableStyleElement type="lastColumn" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1278,7 +1946,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="31" fmlaLink="$E$4" horiz="1" max="12" min="1" page="10" val="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="31" fmlaLink="$E$4" horiz="1" max="12" min="1" page="10" val="7"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1658,11 +2326,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI15" sqref="AI15"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1670,10 +2338,10 @@
     <col min="1" max="1" width="2.6328125" style="49" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" style="74" customWidth="1"/>
+    <col min="7" max="7" width="2.6328125" style="73" customWidth="1"/>
     <col min="8" max="8" width="4.26953125" hidden="1" customWidth="1"/>
     <col min="9" max="64" width="2.54296875" customWidth="1"/>
     <col min="69" max="70" width="10.36328125"/>
@@ -1681,10 +2349,10 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1695,549 +2363,548 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F2" s="88"/>
       <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="91">
+      <c r="D3" s="87"/>
+      <c r="E3" s="90">
         <v>45061</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="89">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="70">
-        <v>2</v>
-      </c>
-      <c r="I4" s="88">
+      <c r="I4" s="91">
         <f>I5</f>
-        <v>45068</v>
-      </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+        <v>45103</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
-        <v>45075</v>
-      </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+        <v>45110</v>
+      </c>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
-        <v>45082</v>
-      </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+        <v>45117</v>
+      </c>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
-        <v>45089</v>
-      </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+        <v>45124</v>
+      </c>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
-        <v>45096</v>
-      </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+        <v>45131</v>
+      </c>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
-        <v>45103</v>
-      </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+        <v>45138</v>
+      </c>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
-        <v>45110</v>
-      </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+        <v>45145</v>
+      </c>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
-        <v>45117</v>
-      </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+        <v>45152</v>
+      </c>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="75"/>
+      <c r="G5" s="74"/>
       <c r="I5" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45068</v>
+        <v>45103</v>
       </c>
       <c r="J5" s="8">
         <f>I5+1</f>
-        <v>45069</v>
+        <v>45104</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45070</v>
+        <v>45105</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>45071</v>
+        <v>45106</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" si="0"/>
-        <v>45072</v>
+        <v>45107</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="0"/>
-        <v>45073</v>
+        <v>45108</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="0"/>
-        <v>45074</v>
+        <v>45109</v>
       </c>
       <c r="P5" s="9">
         <f>O5+1</f>
-        <v>45075</v>
+        <v>45110</v>
       </c>
       <c r="Q5" s="8">
         <f>P5+1</f>
-        <v>45076</v>
+        <v>45111</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
-        <v>45077</v>
+        <v>45112</v>
       </c>
       <c r="S5" s="8">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45113</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" si="0"/>
-        <v>45079</v>
+        <v>45114</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" si="0"/>
-        <v>45080</v>
+        <v>45115</v>
       </c>
       <c r="V5" s="10">
         <f t="shared" si="0"/>
-        <v>45081</v>
+        <v>45116</v>
       </c>
       <c r="W5" s="9">
         <f>V5+1</f>
-        <v>45082</v>
+        <v>45117</v>
       </c>
       <c r="X5" s="8">
         <f>W5+1</f>
-        <v>45083</v>
+        <v>45118</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" si="0"/>
-        <v>45084</v>
+        <v>45119</v>
       </c>
       <c r="Z5" s="8">
         <f t="shared" si="0"/>
-        <v>45085</v>
+        <v>45120</v>
       </c>
       <c r="AA5" s="8">
         <f t="shared" si="0"/>
-        <v>45086</v>
+        <v>45121</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" si="0"/>
-        <v>45087</v>
+        <v>45122</v>
       </c>
       <c r="AC5" s="10">
         <f t="shared" si="0"/>
-        <v>45088</v>
+        <v>45123</v>
       </c>
       <c r="AD5" s="9">
         <f>AC5+1</f>
-        <v>45089</v>
+        <v>45124</v>
       </c>
       <c r="AE5" s="8">
         <f>AD5+1</f>
-        <v>45090</v>
+        <v>45125</v>
       </c>
       <c r="AF5" s="8">
         <f t="shared" si="0"/>
-        <v>45091</v>
+        <v>45126</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" si="0"/>
-        <v>45092</v>
+        <v>45127</v>
       </c>
       <c r="AH5" s="8">
         <f t="shared" si="0"/>
-        <v>45093</v>
+        <v>45128</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" si="0"/>
-        <v>45094</v>
+        <v>45129</v>
       </c>
       <c r="AJ5" s="10">
         <f t="shared" si="0"/>
-        <v>45095</v>
+        <v>45130</v>
       </c>
       <c r="AK5" s="9">
         <f>AJ5+1</f>
-        <v>45096</v>
+        <v>45131</v>
       </c>
       <c r="AL5" s="8">
         <f>AK5+1</f>
-        <v>45097</v>
+        <v>45132</v>
       </c>
       <c r="AM5" s="8">
         <f t="shared" si="0"/>
-        <v>45098</v>
+        <v>45133</v>
       </c>
       <c r="AN5" s="8">
         <f t="shared" si="0"/>
-        <v>45099</v>
+        <v>45134</v>
       </c>
       <c r="AO5" s="8">
         <f t="shared" si="0"/>
-        <v>45100</v>
+        <v>45135</v>
       </c>
       <c r="AP5" s="8">
         <f t="shared" si="0"/>
-        <v>45101</v>
+        <v>45136</v>
       </c>
       <c r="AQ5" s="10">
         <f t="shared" si="0"/>
-        <v>45102</v>
+        <v>45137</v>
       </c>
       <c r="AR5" s="9">
         <f>AQ5+1</f>
-        <v>45103</v>
+        <v>45138</v>
       </c>
       <c r="AS5" s="8">
         <f>AR5+1</f>
-        <v>45104</v>
+        <v>45139</v>
       </c>
       <c r="AT5" s="8">
         <f t="shared" si="0"/>
-        <v>45105</v>
+        <v>45140</v>
       </c>
       <c r="AU5" s="8">
         <f t="shared" si="0"/>
-        <v>45106</v>
+        <v>45141</v>
       </c>
       <c r="AV5" s="8">
         <f t="shared" si="0"/>
-        <v>45107</v>
+        <v>45142</v>
       </c>
       <c r="AW5" s="8">
         <f t="shared" si="0"/>
-        <v>45108</v>
+        <v>45143</v>
       </c>
       <c r="AX5" s="10">
         <f t="shared" si="0"/>
-        <v>45109</v>
+        <v>45144</v>
       </c>
       <c r="AY5" s="9">
         <f>AX5+1</f>
-        <v>45110</v>
+        <v>45145</v>
       </c>
       <c r="AZ5" s="8">
         <f>AY5+1</f>
-        <v>45111</v>
+        <v>45146</v>
       </c>
       <c r="BA5" s="8">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45112</v>
+        <v>45147</v>
       </c>
       <c r="BB5" s="8">
         <f t="shared" si="1"/>
-        <v>45113</v>
+        <v>45148</v>
       </c>
       <c r="BC5" s="8">
         <f t="shared" si="1"/>
-        <v>45114</v>
+        <v>45149</v>
       </c>
       <c r="BD5" s="8">
         <f t="shared" si="1"/>
-        <v>45115</v>
+        <v>45150</v>
       </c>
       <c r="BE5" s="10">
         <f t="shared" si="1"/>
-        <v>45116</v>
+        <v>45151</v>
       </c>
       <c r="BF5" s="9">
         <f>BE5+1</f>
-        <v>45117</v>
+        <v>45152</v>
       </c>
       <c r="BG5" s="8">
         <f>BF5+1</f>
-        <v>45118</v>
+        <v>45153</v>
       </c>
       <c r="BH5" s="8">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>45119</v>
+        <v>45154</v>
       </c>
       <c r="BI5" s="8">
         <f t="shared" si="2"/>
-        <v>45120</v>
+        <v>45155</v>
       </c>
       <c r="BJ5" s="8">
         <f t="shared" si="2"/>
-        <v>45121</v>
+        <v>45156</v>
       </c>
       <c r="BK5" s="8">
         <f t="shared" si="2"/>
-        <v>45122</v>
+        <v>45157</v>
       </c>
       <c r="BL5" s="10">
         <f t="shared" si="2"/>
-        <v>45123</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AG6" s="11" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AP6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AQ6" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AS6" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AT6" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AU6" s="11" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AV6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AW6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AX6" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AY6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AZ6" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="BA6" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="BB6" s="11" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="BC6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="BD6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="BE6" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="BF6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BG6" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="BH6" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="BI6" s="11" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="BJ6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="BK6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="BL6" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="52"/>
       <c r="E7"/>
@@ -2304,18 +2971,18 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="76"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H13" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H11" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -2376,22 +3043,20 @@
       <c r="BL8" s="35"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="82">
-        <v>45061</v>
-      </c>
-      <c r="F9" s="82">
-        <v>45061</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>51</v>
+      <c r="A9" s="49"/>
+      <c r="B9" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="81">
+        <v>45096</v>
+      </c>
+      <c r="F9" s="81">
+        <v>45096</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="3"/>
@@ -2456,19 +3121,19 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="49"/>
-      <c r="B10" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82">
-        <v>45096</v>
-      </c>
-      <c r="F10" s="82">
-        <v>45096</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>51</v>
+      <c r="B10" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="81">
+        <v>45156</v>
+      </c>
+      <c r="F10" s="81">
+        <v>45156</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>45</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="3"/>
@@ -2533,19 +3198,19 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="49"/>
-      <c r="B11" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="82">
-        <v>45156</v>
-      </c>
-      <c r="F11" s="82">
-        <v>45156</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>51</v>
+      <c r="B11" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="81">
+        <v>45163</v>
+      </c>
+      <c r="F11" s="81">
+        <v>45163</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>45</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="3"/>
@@ -2608,25 +3273,21 @@
       <c r="BK11" s="35"/>
       <c r="BL11" s="35"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="49"/>
-      <c r="B12" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="82">
-        <v>45163</v>
-      </c>
-      <c r="F12" s="82">
-        <v>45163</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="3"/>
-        <v>1</v>
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="14" t="str">
+        <f t="shared" ref="H12:H34" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
@@ -2686,24 +3347,27 @@
       <c r="BL12" s="35"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="49"/>
-      <c r="B13" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="82">
-        <v>45173</v>
-      </c>
-      <c r="F13" s="82">
-        <v>45177</v>
-      </c>
-      <c r="G13" s="76" t="s">
+      <c r="A13" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="70" t="s">
         <v>51</v>
       </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="67">
+        <f>Project_Start</f>
+        <v>45061</v>
+      </c>
+      <c r="F13" s="67">
+        <v>45070</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="14">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
@@ -2762,21 +3426,27 @@
       <c r="BK13" s="35"/>
       <c r="BL13" s="35"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="14" t="str">
-        <f t="shared" ref="H14:H35" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="B14" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="67">
+        <v>45069</v>
+      </c>
+      <c r="F14" s="67">
+        <v>45072</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -2790,8 +3460,8 @@
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -2836,27 +3506,24 @@
       <c r="BL14" s="35"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>60</v>
+      <c r="A15" s="49"/>
+      <c r="B15" s="70" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="19"/>
       <c r="E15" s="67">
-        <f>Project_Start</f>
-        <v>45061</v>
+        <v>45070</v>
       </c>
       <c r="F15" s="67">
-        <v>45070</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>49</v>
+        <v>45074</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -2915,27 +3582,21 @@
       <c r="BK15" s="35"/>
       <c r="BL15" s="35"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="67">
-        <v>45069</v>
-      </c>
-      <c r="F16" s="67">
-        <v>45072</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="14">
+      <c r="B16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
@@ -2949,8 +3610,8 @@
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
@@ -2995,24 +3656,24 @@
       <c r="BL16" s="35"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="67">
-        <v>45070</v>
-      </c>
-      <c r="F17" s="67">
-        <v>45074</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="68">
+        <v>45063</v>
+      </c>
+      <c r="F17" s="68">
+        <v>45063</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>44</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
@@ -3071,21 +3732,26 @@
       <c r="BK17" s="35"/>
       <c r="BL17" s="35"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="14" t="str">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="49"/>
+      <c r="B18" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="68">
+        <v>45076</v>
+      </c>
+      <c r="F18" s="68">
+        <f>E18+1</f>
+        <v>45077</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="14">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -3099,8 +3765,8 @@
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
@@ -3145,24 +3811,25 @@
       <c r="BL18" s="35"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="50"/>
-      <c r="B19" s="72" t="s">
-        <v>63</v>
+      <c r="A19" s="49"/>
+      <c r="B19" s="71" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="58"/>
       <c r="D19" s="24"/>
       <c r="E19" s="68">
-        <v>45063</v>
+        <v>45076</v>
       </c>
       <c r="F19" s="68">
-        <v>45063</v>
-      </c>
-      <c r="G19" s="76" t="s">
-        <v>50</v>
+        <f>E19+1</f>
+        <v>45077</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>44</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
@@ -3221,26 +3888,21 @@
       <c r="BK19" s="35"/>
       <c r="BL19" s="35"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="49"/>
-      <c r="B20" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="68">
-        <v>45076</v>
-      </c>
-      <c r="F20" s="68">
-        <f>E20+1</f>
-        <v>45077</v>
-      </c>
-      <c r="G20" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="14">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -3254,8 +3916,8 @@
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
@@ -3302,23 +3964,23 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="49"/>
       <c r="B21" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="68">
-        <v>45076</v>
-      </c>
-      <c r="F21" s="68">
-        <f>E21+1</f>
-        <v>45077</v>
-      </c>
-      <c r="G21" s="76" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="69">
+        <v>45075</v>
+      </c>
+      <c r="F21" s="69">
+        <f>E21+4</f>
+        <v>45079</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>37</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
@@ -3377,21 +4039,27 @@
       <c r="BK21" s="35"/>
       <c r="BL21" s="35"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="14" t="str">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="49"/>
+      <c r="B22" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="69">
+        <f>E21+2</f>
+        <v>45077</v>
+      </c>
+      <c r="F22" s="69">
+        <f>E22+9</f>
+        <v>45086</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="14">
         <f t="shared" si="4"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
@@ -3452,24 +4120,25 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="49"/>
-      <c r="B23" s="73" t="s">
-        <v>66</v>
+      <c r="B23" s="72" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="29"/>
       <c r="E23" s="69">
-        <v>45075</v>
+        <f>F22</f>
+        <v>45086</v>
       </c>
       <c r="F23" s="69">
-        <f>E23+4</f>
-        <v>45079</v>
-      </c>
-      <c r="G23" s="76" t="s">
-        <v>39</v>
+        <f>E23+5</f>
+        <v>45091</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>37</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
@@ -3530,25 +4199,25 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="49"/>
-      <c r="B24" s="73" t="s">
-        <v>67</v>
+      <c r="B24" s="72" t="s">
+        <v>63</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="29"/>
       <c r="E24" s="69">
-        <f>E23+2</f>
-        <v>45077</v>
+        <f>F23+1</f>
+        <v>45092</v>
       </c>
       <c r="F24" s="69">
-        <f>E24+9</f>
-        <v>45086</v>
-      </c>
-      <c r="G24" s="76" t="s">
-        <v>39</v>
+        <f>E24+8</f>
+        <v>45100</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>37</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -3609,26 +4278,23 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="49"/>
-      <c r="B25" s="73" t="s">
-        <v>70</v>
+      <c r="B25" s="72" t="s">
+        <v>59</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="29"/>
       <c r="E25" s="69">
         <f>F24</f>
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="F25" s="69">
-        <f>E25+5</f>
-        <v>45091</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
+        <f>E25+3</f>
+        <v>45103</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="14"/>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
@@ -3686,27 +4352,21 @@
       <c r="BK25" s="35"/>
       <c r="BL25" s="35"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="49"/>
-      <c r="B26" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="69">
-        <f>F25+1</f>
-        <v>45092</v>
-      </c>
-      <c r="F26" s="69">
-        <f>E26+8</f>
-        <v>45100</v>
-      </c>
-      <c r="G26" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="14">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
@@ -3766,24 +4426,28 @@
       <c r="BL26" s="35"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="49"/>
-      <c r="B27" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="69">
-        <f>F26</f>
-        <v>45100</v>
-      </c>
-      <c r="F27" s="69">
-        <f>E27+3</f>
-        <v>45103</v>
-      </c>
-      <c r="G27" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="14"/>
+      <c r="A27" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="67">
+        <v>45096</v>
+      </c>
+      <c r="F27" s="67">
+        <f>E27+6</f>
+        <v>45102</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
@@ -3841,21 +4505,29 @@
       <c r="BK27" s="35"/>
       <c r="BL27" s="35"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="14" t="str">
+      <c r="B28" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="67">
+        <f>F27+1</f>
+        <v>45103</v>
+      </c>
+      <c r="F28" s="67">
+        <f>E28+6</f>
+        <v>45109</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="14">
         <f t="shared" si="4"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -3869,8 +4541,8 @@
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -3916,22 +4588,23 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>69</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="19"/>
       <c r="E29" s="67">
-        <v>45096</v>
+        <f>F28+1</f>
+        <v>45110</v>
       </c>
       <c r="F29" s="67">
         <f>E29+6</f>
-        <v>45102</v>
-      </c>
-      <c r="G29" s="76" t="s">
-        <v>49</v>
+        <v>45116</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="4"/>
@@ -3949,8 +4622,8 @@
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -3995,24 +4668,22 @@
       <c r="BL29" s="35"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>71</v>
+      <c r="A30" s="49"/>
+      <c r="B30" s="70" t="s">
+        <v>62</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="19"/>
       <c r="E30" s="67">
         <f>F29+1</f>
-        <v>45103</v>
+        <v>45117</v>
       </c>
       <c r="F30" s="67">
         <f>E30+13</f>
-        <v>45116</v>
-      </c>
-      <c r="G30" s="76" t="s">
-        <v>49</v>
+        <v>45130</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="4"/>
@@ -4030,8 +4701,8 @@
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -4076,28 +4747,26 @@
       <c r="BL30" s="35"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="71" t="s">
-        <v>73</v>
+      <c r="A31" s="49"/>
+      <c r="B31" s="70" t="s">
+        <v>70</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="19"/>
       <c r="E31" s="67">
         <f>F30+1</f>
-        <v>45117</v>
+        <v>45131</v>
       </c>
       <c r="F31" s="67">
-        <f>E31+13</f>
-        <v>45130</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>49</v>
+        <f>E31+6</f>
+        <v>45137</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -4111,8 +4780,8 @@
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -4158,21 +4827,21 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="49"/>
-      <c r="B32" s="71" t="s">
-        <v>72</v>
+      <c r="B32" s="70" t="s">
+        <v>67</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="19"/>
       <c r="E32" s="67">
         <f>F31+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="F32" s="67">
         <f>E32+13</f>
-        <v>45144</v>
-      </c>
-      <c r="G32" s="76" t="s">
-        <v>49</v>
+        <v>45151</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="4"/>
@@ -4237,25 +4906,25 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="49"/>
-      <c r="B33" s="71" t="s">
-        <v>74</v>
+      <c r="B33" s="70" t="s">
+        <v>59</v>
       </c>
       <c r="C33" s="56"/>
       <c r="D33" s="19"/>
       <c r="E33" s="67">
-        <f>F32+1</f>
+        <f>F31+8</f>
         <v>45145</v>
       </c>
       <c r="F33" s="67">
-        <f>E33+6</f>
-        <v>45151</v>
-      </c>
-      <c r="G33" s="76" t="s">
-        <v>49</v>
+        <f>E33+10</f>
+        <v>45155</v>
+      </c>
+      <c r="G33" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
@@ -4314,183 +4983,104 @@
       <c r="BK33" s="35"/>
       <c r="BL33" s="35"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="49"/>
-      <c r="B34" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="67">
-        <f>F32+1</f>
-        <v>45145</v>
-      </c>
-      <c r="F34" s="67">
-        <f>E34+10</f>
-        <v>45155</v>
-      </c>
-      <c r="G34" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="14">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="35"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-      <c r="AO34" s="35"/>
-      <c r="AP34" s="35"/>
-      <c r="AQ34" s="35"/>
-      <c r="AR34" s="35"/>
-      <c r="AS34" s="35"/>
-      <c r="AT34" s="35"/>
-      <c r="AU34" s="35"/>
-      <c r="AV34" s="35"/>
-      <c r="AW34" s="35"/>
-      <c r="AX34" s="35"/>
-      <c r="AY34" s="35"/>
-      <c r="AZ34" s="35"/>
-      <c r="BA34" s="35"/>
-      <c r="BB34" s="35"/>
-      <c r="BC34" s="35"/>
-      <c r="BD34" s="35"/>
-      <c r="BE34" s="35"/>
-      <c r="BF34" s="35"/>
-      <c r="BG34" s="35"/>
-      <c r="BH34" s="35"/>
-      <c r="BI34" s="35"/>
-      <c r="BJ34" s="35"/>
-      <c r="BK34" s="35"/>
-      <c r="BL34" s="35"/>
-    </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="30" t="s">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="34" t="str">
+      <c r="C34" s="66"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="37"/>
-      <c r="AT35" s="37"/>
-      <c r="AU35" s="37"/>
-      <c r="AV35" s="37"/>
-      <c r="AW35" s="37"/>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BB35" s="37"/>
-      <c r="BC35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BE35" s="37"/>
-      <c r="BF35" s="37"/>
-      <c r="BG35" s="37"/>
-      <c r="BH35" s="37"/>
-      <c r="BI35" s="37"/>
-      <c r="BJ35" s="37"/>
-      <c r="BK35" s="37"/>
-      <c r="BL35" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
+    </row>
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="77"/>
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="78"/>
+      <c r="C36" s="12"/>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="12"/>
-      <c r="F37" s="51"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="13"/>
+      <c r="C37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4504,25 +5094,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL35">
-    <cfRule type="expression" dxfId="5" priority="36">
+  <conditionalFormatting sqref="I5:BL34">
+    <cfRule type="expression" dxfId="41" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL35">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:BL34">
+    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5,($G7="x"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5,($G7="g"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5,($G7="r"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="37" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5,($G7="b"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4583,7 +5173,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4596,7 +5186,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4608,79 +5198,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="46"/>
     </row>
     <row r="4" spans="1:2" s="42" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A4" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="39" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="42" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A8" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="39" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="42" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A11" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="39" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="42" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A14" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4694,4 +5284,316 @@
   <pageSetup orientation="portrait" r:id="rId5"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9F9A1F-222F-423D-9798-D3E1E91B5B7B}">
+  <dimension ref="B6:S14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.90625" customWidth="1"/>
+    <col min="6" max="18" width="9.81640625" customWidth="1"/>
+    <col min="19" max="19" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+    </row>
+    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="114">
+        <v>1</v>
+      </c>
+      <c r="F8" s="98">
+        <v>2</v>
+      </c>
+      <c r="G8" s="99">
+        <v>3</v>
+      </c>
+      <c r="H8" s="98">
+        <v>4</v>
+      </c>
+      <c r="I8" s="98">
+        <v>5</v>
+      </c>
+      <c r="J8" s="99">
+        <v>6</v>
+      </c>
+      <c r="K8" s="98">
+        <v>7</v>
+      </c>
+      <c r="L8" s="98">
+        <v>8</v>
+      </c>
+      <c r="M8" s="99">
+        <v>9</v>
+      </c>
+      <c r="N8" s="98">
+        <v>10</v>
+      </c>
+      <c r="O8" s="98">
+        <v>11</v>
+      </c>
+      <c r="P8" s="99">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="98">
+        <v>13</v>
+      </c>
+      <c r="R8" s="100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="105"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="120">
+        <v>45061</v>
+      </c>
+      <c r="F9" s="101">
+        <f>E9+7</f>
+        <v>45068</v>
+      </c>
+      <c r="G9" s="101">
+        <f t="shared" ref="G9:P9" si="0">F9+7</f>
+        <v>45075</v>
+      </c>
+      <c r="H9" s="101">
+        <f t="shared" si="0"/>
+        <v>45082</v>
+      </c>
+      <c r="I9" s="101">
+        <f t="shared" si="0"/>
+        <v>45089</v>
+      </c>
+      <c r="J9" s="101">
+        <f t="shared" si="0"/>
+        <v>45096</v>
+      </c>
+      <c r="K9" s="101">
+        <f t="shared" si="0"/>
+        <v>45103</v>
+      </c>
+      <c r="L9" s="101">
+        <f t="shared" si="0"/>
+        <v>45110</v>
+      </c>
+      <c r="M9" s="101">
+        <f>L9+7</f>
+        <v>45117</v>
+      </c>
+      <c r="N9" s="101">
+        <f t="shared" si="0"/>
+        <v>45124</v>
+      </c>
+      <c r="O9" s="101">
+        <f t="shared" si="0"/>
+        <v>45131</v>
+      </c>
+      <c r="P9" s="101">
+        <f t="shared" si="0"/>
+        <v>45138</v>
+      </c>
+      <c r="Q9" s="101">
+        <f>P9+7</f>
+        <v>45145</v>
+      </c>
+      <c r="R9" s="102">
+        <f t="shared" ref="R9:S9" si="1">Q9+7</f>
+        <v>45152</v>
+      </c>
+      <c r="S9" s="95"/>
+    </row>
+    <row r="10" spans="2:19" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="125"/>
+    </row>
+    <row r="11" spans="2:19" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="125"/>
+    </row>
+    <row r="12" spans="2:19" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="130"/>
+    </row>
+    <row r="13" spans="2:19" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="125"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A58481F-6DC2-4372-9AA0-66999136D79C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F7CFC6FE-993D-4B4E-9AC5-93C0D4350A46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:N10">
+    <cfRule type="expression" dxfId="35" priority="6">
+      <formula>AND(TODAY()&gt;=E$5,TODAY()&lt;F$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:N10">
+    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
+      <formula>AND(task_end&gt;=E$5,task_start&lt;F$5,($G10="x"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=E$5,task_start&lt;F$5,($G10="g"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=E$5,task_start&lt;F$5,($G10="r"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="4">
+      <formula>AND(task_start&lt;=E$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=E$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=E$5,task_start&lt;F$5,($G10="b"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7A58481F-6DC2-4372-9AA0-66999136D79C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D10:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F7CFC6FE-993D-4B4E-9AC5-93C0D4350A46}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>